--- a/Documentation/ExtendedPropertiesList.xlsx
+++ b/Documentation/ExtendedPropertiesList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DataLoadFrameworks\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\DataLoadFrameworks\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>AdditionalColumnDefinitionStaging1</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>Used to identify fact tables to push into OLAP views</t>
+  </si>
+  <si>
+    <t>Exclude from traversing the related tables via this column for flattening</t>
   </si>
 </sst>
 </file>
@@ -623,20 +626,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="117.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="117.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -650,7 +653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -664,7 +667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -678,7 +681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -692,7 +695,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -706,163 +709,163 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
         <v>-0.5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
         <v>0.5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -874,37 +877,37 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -916,9 +919,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -930,283 +933,297 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>13</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>18</v>
       </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
         <v>9</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>34</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>92</v>
       </c>
     </row>

--- a/Documentation/ExtendedPropertiesList.xlsx
+++ b/Documentation/ExtendedPropertiesList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
   <si>
     <t>AdditionalColumnDefinitionStaging1</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>Exclude from traversing the related tables via this column for flattening</t>
+  </si>
+  <si>
+    <t>PrimaryRelationship</t>
+  </si>
+  <si>
+    <t>Ordering of columns where multiple rol playing dimensions exist. E.g. Which table will also be used for DimUser as well as DimApprovingUser</t>
   </si>
 </sst>
 </file>
@@ -626,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,55 +955,55 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>48</v>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="1" t="b">
-        <v>1</v>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
+      <c r="C25" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>77</v>
@@ -1005,13 +1011,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>77</v>
@@ -1019,105 +1025,105 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="b">
-        <v>1</v>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>54</v>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="1" t="b">
-        <v>1</v>
+      <c r="C34" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -1126,12 +1132,12 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -1140,12 +1146,12 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -1154,76 +1160,90 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>56</v>
+      <c r="C38" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>57</v>
+      <c r="C41" s="1">
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>92</v>
       </c>
     </row>
